--- a/data/trans_dic/P36$otros-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,22</t>
+          <t>0,58; 2,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,43</t>
+          <t>0,26; 1,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,49</t>
+          <t>4,74; 8,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,82</t>
+          <t>1,56; 3,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,03</t>
+          <t>0,48; 2,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,03</t>
+          <t>3,65; 7,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,66</t>
+          <t>1,2; 2,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,42</t>
+          <t>0,48; 1,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,22</t>
+          <t>4,69; 7,29</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,41</t>
+          <t>0,81; 2,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,32</t>
+          <t>0,3; 1,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,39</t>
+          <t>2,81; 5,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,21</t>
+          <t>0,72; 2,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,45</t>
+          <t>0,3; 1,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,2</t>
+          <t>3,2; 6,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,06</t>
+          <t>0,92; 2,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,15</t>
+          <t>0,43; 1,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,46</t>
+          <t>3,5; 5,41</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,17</t>
+          <t>1,6; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,43</t>
+          <t>0,38; 2,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,31</t>
+          <t>1,75; 4,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,99</t>
+          <t>1,05; 3,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,81</t>
+          <t>0,69; 2,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,47</t>
+          <t>1,91; 4,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,04</t>
+          <t>1,54; 3,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,17</t>
+          <t>0,74; 2,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,93</t>
+          <t>2,11; 3,86</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,26</t>
+          <t>1,23; 3,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,8</t>
+          <t>0,96; 2,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,61</t>
+          <t>2,29; 4,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,0</t>
+          <t>0,65; 2,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,14</t>
+          <t>0,75; 2,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,13</t>
+          <t>2,8; 5,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,27</t>
+          <t>1,04; 2,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,17</t>
+          <t>0,99; 2,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,56</t>
+          <t>2,77; 4,44</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,33</t>
+          <t>1,41; 2,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,48</t>
+          <t>0,7; 1,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,84</t>
+          <t>3,37; 4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,13</t>
+          <t>1,23; 2,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,55</t>
+          <t>0,82; 1,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,96</t>
+          <t>3,53; 4,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,05</t>
+          <t>1,45; 2,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,37</t>
+          <t>0,88; 1,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 4,62</t>
+          <t>3,63; 4,61</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, otros alimentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8706</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4884</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43798</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17077</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34748</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25783</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12384</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>78546</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4035; 15898</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1839; 11868</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31931; 57662</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10719; 26925</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3316; 15103</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24491; 48357</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16514; 36585</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6702; 22168</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63074; 97979</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13998</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7038</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>40943</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12961</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7325</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>48141</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26959</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14364</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>89085</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7792; 23532</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3032; 14238</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28728; 54975</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6927; 21562</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3120; 14669</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>33329; 63111</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17704; 40168</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8817; 24087</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>72253; 111585</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17735</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7974</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21386</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13005</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11604</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23448</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30740</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19578</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>44834</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10863; 27516</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2905; 19924</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13246; 33140</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7194; 20856</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5330; 21200</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14996; 34504</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21012; 43029</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11360; 31984</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32620; 59543</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18916</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16049</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30781</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12488</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13967</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40112</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31403</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30016</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>70893</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11553; 29990</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9124; 27382</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21428; 45796</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6695; 21075</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7829; 22717</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29222; 54575</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20540; 45426</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19737; 42602</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>54827; 88015</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>59356</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35946</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>136908</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>55531</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40396</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>146449</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>114886</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>76342</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>283357</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>46143; 76136</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24101; 52927</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>114086; 161648</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>41555; 70627</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29013; 54551</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>125167; 171338</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>96628; 138150</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>61548; 96497</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>251277; 319791</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>